--- a/esmaulhusna.xlsx
+++ b/esmaulhusna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE39BA1-45CB-466C-9978-509C2FA2FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDDB74F-E941-4960-B142-C998EAEE86E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="99İSMİ" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'99İSMİ'!$E$1:$E$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'99İSMİ'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>arabic_word</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>الصبور</t>
+  </si>
+  <si>
+    <t>kelime_cinsi</t>
   </si>
 </sst>
 </file>
@@ -1048,14 +1051,14 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
   <cols>
     <col min="1" max="1" width="41.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
     <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1067,6 +1070,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
     </row>
@@ -2060,6 +2066,7 @@
       <c r="E100" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D100">
     <sortCondition descending="1" ref="D1:D100"/>
   </sortState>

--- a/esmaulhusna.xlsx
+++ b/esmaulhusna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDDB74F-E941-4960-B142-C998EAEE86E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAB5B3F-3523-4019-A314-8670CAB2FA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>arabic_word</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>kelime_cinsi</t>
+  </si>
+  <si>
+    <t>ses_dosyası</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1054,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="52.5"/>
@@ -1073,7 +1076,9 @@
       <c r="C1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="69.75">
